--- a/yield_prediction/results/graph_descriptors/WLsigmoidarctangent_4/out_of_sample/ligand/LOO_XPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidarctangent_4/out_of_sample/ligand/LOO_XPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.163</v>
+        <v>0.533</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25.02</v>
+        <v>17.632</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.026</v>
+        <v>-0.949</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.949</v>
+        <v>24.468</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.549</v>
+        <v>0.921</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.194</v>
+        <v>8.044</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5.853250493169305</v>
+        <v>9.610212777210069</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>25.77402317252767</v>
+        <v>16.39154642960223</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>30.64092665063275</v>
+        <v>19.09686327525718</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4.60426253823934</v>
+        <v>-1.518697887008745</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>25.76814082488124</v>
+        <v>20.19658248738752</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>30.63578375277552</v>
+        <v>22.59531255622644</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>13.50473224744854</v>
+        <v>-0.7884268942887722</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>33.16025642689682</v>
+        <v>30.36102808523253</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>38.09040483875819</v>
+        <v>33.4865186361188</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>39.25006315992201</v>
+        <v>29.78808131826555</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>45.98846388068838</v>
+        <v>35.45507682695506</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>49.94444599069095</v>
+        <v>37.72393983240065</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>15.92709112415326</v>
+        <v>11.30905991977268</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>41.31986375989707</v>
+        <v>27.84290711505155</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>47.17629946606112</v>
+        <v>35.69124033346068</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>10.07724490438727</v>
+        <v>17.32545299731971</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>30.14260908246494</v>
+        <v>33.70057941690185</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>35.40589340787129</v>
+        <v>41.09241557029378</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>7.605562778713484</v>
+        <v>7.058186179914408</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>28.8285314952257</v>
+        <v>28.95948388467779</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>34.2127333605371</v>
+        <v>41.09595559891041</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>17.03418619123187</v>
+        <v>6.598019108821926</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>36.85758380162656</v>
+        <v>45.10826161356395</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>42.17405651500317</v>
+        <v>62.40210822405146</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>42.12400976243473</v>
+        <v>42.99229147809348</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>49.1053053932016</v>
+        <v>52.31774881643882</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>53.31289249924417</v>
+        <v>60.04343787638841</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>19.826459299516</v>
+        <v>19.48556088518938</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>45.97767156953872</v>
+        <v>57.31343807704952</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>51.91798057475186</v>
+        <v>66.5480645698871</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>19.32808892814764</v>
+        <v>23.61553575045013</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>40.41714111717705</v>
+        <v>42.21243940065926</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>45.77517590271333</v>
+        <v>50.16540079877446</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>17.75346239025668</v>
+        <v>9.687836182399344</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>40.22798174834973</v>
+        <v>41.42855575902249</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>45.61615479786157</v>
+        <v>50.93073395000401</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>28.70031219213711</v>
+        <v>11.32835097269456</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>49.53729549157802</v>
+        <v>61.77318888875811</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>54.97877885421619</v>
+        <v>74.0685952899742</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>56.59700391518307</v>
+        <v>72.95743747497328</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>63.69401893351483</v>
+        <v>79.93211806004945</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>68.20797266973499</v>
+        <v>89.54084473579461</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>31.7289246708044</v>
+        <v>29.50303385224741</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>59.4445850085476</v>
+        <v>77.22635237792649</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>65.73790205189101</v>
+        <v>87.69583763331744</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>11.01143842956246</v>
+        <v>13.26962297828374</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>31.60863222492532</v>
+        <v>37.21118643351279</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>36.1576747938747</v>
+        <v>41.94684970197562</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>10.35646972724261</v>
+        <v>7.059280603506874</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>32.34730286389158</v>
+        <v>43.46591876063493</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>36.83995400273766</v>
+        <v>47.54586059039306</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>19.71618156328963</v>
+        <v>8.931803728309038</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>40.03862028749665</v>
+        <v>61.5588151203476</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>44.65701797339072</v>
+        <v>64.336247640781</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>45.79082937735739</v>
+        <v>61.46668679604413</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>52.82344529527867</v>
+        <v>69.56901139411532</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>56.32260619590621</v>
+        <v>68.79413393554503</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>21.04495347839882</v>
+        <v>17.15987330588681</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>47.69011388502142</v>
+        <v>56.70439690075482</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>53.11053824452591</v>
+        <v>62.2315050840741</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>13.81659800631576</v>
+        <v>13.43345477115988</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>34.47654574711514</v>
+        <v>38.62462331157822</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>39.41194811814368</v>
+        <v>45.08553554886879</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>11.90786143110842</v>
+        <v>4.466446439736998</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>33.86045201328649</v>
+        <v>34.95849372033661</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>38.85803686949026</v>
+        <v>44.24804641226822</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>21.73369550598617</v>
+        <v>5.220575823446762</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>42.14216043022076</v>
+        <v>55.56318435402392</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>47.13799712061756</v>
+        <v>69.12389138306199</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>47.24429741492878</v>
+        <v>53.56742830102574</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>54.46620879310258</v>
+        <v>65.10405778332178</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>58.22994509904208</v>
+        <v>67.6152205075314</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>23.6644385091319</v>
+        <v>16.3731624791721</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>50.94722873155499</v>
+        <v>67.9472256563742</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>56.44213202026668</v>
+        <v>72.17125258192775</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>23.51219684994643</v>
+        <v>14.98841110684582</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>45.20349301917801</v>
+        <v>45.36123691612241</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>50.17292030913357</v>
+        <v>51.96003159228793</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>22.44721510646668</v>
+        <v>3.216096270907709</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>45.66262350376124</v>
+        <v>45.57560401531981</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>50.60165646693142</v>
+        <v>51.93024742342696</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>33.80596107963764</v>
+        <v>5.787176188639023</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>55.23914179076103</v>
+        <v>69.47242283072377</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>60.29545992532942</v>
+        <v>78.32309522910012</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>61.93205452775872</v>
+        <v>78.05966242451019</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>69.29966885610074</v>
+        <v>88.5541263897087</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>73.32811147603572</v>
+        <v>92.43502445654289</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>35.88152355228461</v>
+        <v>17.65608777781289</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>64.6916145289153</v>
+        <v>84.99452202360089</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>70.46055601732282</v>
+        <v>89.43492742157198</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>11.06032185692299</v>
+        <v>19.83944155602022</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>31.64182101113565</v>
+        <v>39.18194108787195</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>36.11799401270849</v>
+        <v>41.49010519045511</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>10.39863564688685</v>
+        <v>8.317702307274701</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>32.36987783859708</v>
+        <v>43.28100629148997</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>36.77544754702895</v>
+        <v>44.37416041946815</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>19.80734274143948</v>
+        <v>11.50070900553595</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>40.10526367963561</v>
+        <v>60.92116317883944</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>44.65494051826078</v>
+        <v>60.74221951403715</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>46.00108856764646</v>
+        <v>58.97421610830544</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>52.95156519482427</v>
+        <v>68.30052745383568</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>56.44368208420823</v>
+        <v>67.15938613788106</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>21.19080216221875</v>
+        <v>22.9505465779326</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>47.84170383287268</v>
+        <v>54.34606677228584</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>53.12429460126334</v>
+        <v>57.82114401648788</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>14.17261340223116</v>
+        <v>23.03596889108933</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>34.82287655679413</v>
+        <v>46.54856046981875</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>39.68454270372489</v>
+        <v>49.4404109707118</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>12.2428332104959</v>
+        <v>8.732291809313523</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>34.1830503992518</v>
+        <v>42.20954287753825</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>39.09498850757089</v>
+        <v>46.41201217803601</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>22.15227171949227</v>
+        <v>11.44821514517477</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>42.54202978898442</v>
+        <v>62.76154413167899</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>47.46807001117011</v>
+        <v>71.4972943595501</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>47.75750558585823</v>
+        <v>59.37899866740314</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>54.89472441127712</v>
+        <v>69.93634809988592</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>58.63422140369526</v>
+        <v>71.19090756144634</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>24.09406482812582</v>
+        <v>26.83287293038008</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>51.38528768044084</v>
+        <v>71.56757582073814</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>56.74274213775217</v>
+        <v>73.00811151318362</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>23.99520833371086</v>
+        <v>23.23524974440199</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>45.68357567851994</v>
+        <v>51.74615685042988</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>50.58650037307624</v>
+        <v>54.44982169394258</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>22.92505874213522</v>
+        <v>7.584053882429895</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>46.13668197978664</v>
+        <v>52.54469274115341</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>50.99740000015088</v>
+        <v>53.30006503916809</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>34.35730312034615</v>
+        <v>10.63014530756342</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>55.77839587430053</v>
+        <v>75.39243423629671</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>60.77218966899641</v>
+        <v>78.99755109656633</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>62.56840131355762</v>
+        <v>83.0179694557567</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>69.86492482309258</v>
+        <v>92.13611145733178</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>73.87493762164809</v>
+        <v>95.31677750805056</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>36.43103103329238</v>
+        <v>28.55610742427356</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>65.25864310647516</v>
+        <v>89.49894793826041</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>70.90195588410465</v>
+        <v>91.02570410267701</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>1.40218883110537</v>
+        <v>12.5405081619065</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>20.92783552912334</v>
+        <v>19.16122670748102</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>25.6121578738677</v>
+        <v>22.04058822769659</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>-0.0657784626199458</v>
+        <v>-0.1883898155475805</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>20.68983196194503</v>
+        <v>20.9428699799663</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>25.34010527979397</v>
+        <v>23.78936272206872</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>8.321021120019509</v>
+        <v>1.367615502532573</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>27.58195923967731</v>
+        <v>30.83641150964611</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>32.32921744588738</v>
+        <v>34.75509620766038</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>33.8931453715188</v>
+        <v>30.1375174144956</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>40.53516580303305</v>
+        <v>34.74083104218373</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>44.38227140137538</v>
+        <v>40.63840622495845</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>11.24756370934711</v>
+        <v>23.09074355877978</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>36.06912185919547</v>
+        <v>37.19770594166575</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>41.70452191237023</v>
+        <v>44.85460337882152</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>5.305767833591275</v>
+        <v>18.75057454547726</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>24.96061861977408</v>
+        <v>33.84033397000166</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>30.03862983882696</v>
+        <v>41.39841798883133</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>2.643854222121185</v>
+        <v>7.909061237865401</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>23.44249008609822</v>
+        <v>28.41970253445393</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>28.60476264587569</v>
+        <v>40.57381573803305</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>11.53088909325731</v>
+        <v>6.687115031486524</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>30.94360831792498</v>
+        <v>42.20408259546101</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>36.07516854737297</v>
+        <v>60.01643424533013</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>36.49004694088271</v>
+        <v>36.9725971479468</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>43.36541096446055</v>
+        <v>46.15315797578195</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>47.46161173189477</v>
+        <v>56.9237980472427</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>14.85837978550396</v>
+        <v>23.94148299062496</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>40.40896380276577</v>
+        <v>56.86237365475891</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>46.13110518896837</v>
+        <v>65.12049059377848</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>14.79243587613431</v>
+        <v>27.822408124015</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>35.46467439568438</v>
+        <v>43.80060488222165</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>40.63089152711481</v>
+        <v>51.88414385154228</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>12.96511940209586</v>
+        <v>10.45218185567235</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>35.00970744720718</v>
+        <v>39.87891871455394</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>40.16787877228229</v>
+        <v>49.10274085436627</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>23.39957274852896</v>
+        <v>13.61945615382011</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>43.81925063633919</v>
+        <v>59.74842122009206</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>49.06914065595242</v>
+        <v>72.81662099523211</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>51.08439229282618</v>
+        <v>67.61357443339004</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>58.07574943401418</v>
+        <v>73.33058774739138</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>62.46896309331014</v>
+        <v>86.7634976189716</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>26.89820472439995</v>
+        <v>34.84834518971478</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>53.99870368190238</v>
+        <v>75.66392978662311</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>60.05654661918111</v>
+        <v>84.6575596167566</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>9.238466280589542</v>
+        <v>22.30839417883593</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>29.41218934047398</v>
+        <v>41.08677960978703</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>34.05674238783206</v>
+        <v>41.58313804393033</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>8.08038536291258</v>
+        <v>8.874313324559576</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>29.54970958684628</v>
+        <v>45.37079797677238</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>34.15568872493677</v>
+        <v>46.10304372875599</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>17.08753698553468</v>
+        <v>13.10527719507653</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>36.99633505899924</v>
+        <v>60.79675107843698</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>41.70556510802292</v>
+        <v>61.08959000255072</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>42.7886584340519</v>
+        <v>54.93953336381918</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>49.66002461025057</v>
+        <v>62.15562791378906</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>53.44501748606895</v>
+        <v>64.32363741882867</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>19.02402762637177</v>
+        <v>25.40695759444719</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>44.65490537417455</v>
+        <v>46.85815136901526</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>50.24489124210912</v>
+        <v>52.85916382796553</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>13.41950542186986</v>
+        <v>30.04023744143251</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>33.72539154641122</v>
+        <v>53.60462687101851</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>38.74343578157338</v>
+        <v>54.71078142317923</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>11.0524441927976</v>
+        <v>15.29557140242365</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>32.57077548542784</v>
+        <v>47.71731589234363</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>37.66511213999529</v>
+        <v>53.22348680621978</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>20.58485478061969</v>
+        <v>18.16139367933737</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>40.64839888385181</v>
+        <v>68.54358279982966</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>45.721148543922</v>
+        <v>78.03492839016553</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>45.64223595705143</v>
+        <v>65.17846458981079</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>52.74255051928411</v>
+        <v>73.75110307489173</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>56.77088974341108</v>
+        <v>78.66344380941833</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>22.95208737718184</v>
+        <v>39.30340677406274</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>49.30848233458359</v>
+        <v>77.53102768208046</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>54.95916356000353</v>
+        <v>81.10794132801097</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>22.03095106118938</v>
+        <v>29.59760924364902</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>43.34708225441139</v>
+        <v>53.73430109758094</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>48.46524740519986</v>
+        <v>56.81159601482793</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>20.52507370501575</v>
+        <v>10.10395134664495</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>43.28169703292606</v>
+        <v>50.37075296419755</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>48.38704366115536</v>
+        <v>54.14000817654268</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>31.55405703745839</v>
+        <v>14.75790769957894</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>52.61684081160534</v>
+        <v>75.00583086285704</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>57.81920365312448</v>
+        <v>81.36431733831412</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>59.41435987319476</v>
+        <v>83.82472884648239</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>66.63699795648991</v>
+        <v>89.74405435731313</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>70.96976396298574</v>
+        <v>96.54418751840142</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>34.18832564403291</v>
+        <v>37.68955323514083</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>62.11443092924094</v>
+        <v>85.83951254440147</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>68.12117648184035</v>
+        <v>90.80112844130565</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>3.416648644259254</v>
+        <v>14.07090226522676</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>22.77337101949816</v>
+        <v>35.93667071865433</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>26.70294402205607</v>
+        <v>39.3415918744324</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>2.852271861079409</v>
+        <v>7.168749128609033</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>23.57213392655164</v>
+        <v>44.37090113522238</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>27.40046768725206</v>
+        <v>46.69180436169512</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>10.42052196024364</v>
+        <v>10.04075456804479</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>29.52411591277277</v>
+        <v>63.41634347794482</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>33.5224469695455</v>
+        <v>63.53585446729906</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>35.76652191567985</v>
+        <v>57.23458101572261</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>42.20594441774406</v>
+        <v>65.2608486015198</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>45.33116442824344</v>
+        <v>66.9647263230322</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>12.63542262811345</v>
+        <v>14.31272197842919</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>37.24831387393363</v>
+        <v>38.87488163409688</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>41.96650288427958</v>
+        <v>45.77083421575077</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>7.256752772905131</v>
+        <v>22.23010150492601</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>26.69580055617465</v>
+        <v>51.80659979798068</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>30.94671470151773</v>
+        <v>53.1776663875639</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>5.55999858111204</v>
+        <v>8.327636144957783</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>26.27702637605525</v>
+        <v>46.4379793453691</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>30.53190549930151</v>
+        <v>50.31917250055106</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>13.58462974836954</v>
+        <v>11.58427874069698</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>32.79195447875706</v>
+        <v>70.87399551901754</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>37.10217882395297</v>
+        <v>76.40855988347251</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>38.31744345037694</v>
+        <v>62.43769187097436</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>44.9501652648199</v>
+        <v>73.49053496630341</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>48.28914860936486</v>
+        <v>77.41590725608187</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>16.30209568151982</v>
+        <v>26.11691560038797</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>41.52176251356812</v>
+        <v>75.76546286904413</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>46.27033920989525</v>
+        <v>77.82905076973674</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>14.62295941359302</v>
+        <v>22.86379937655597</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>34.98479527427396</v>
+        <v>52.87739951761137</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>39.26913422897539</v>
+        <v>56.10809717532511</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>13.6769871559187</v>
+        <v>4.501627582706586</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>35.52943907911078</v>
+        <v>49.11707664437965</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>39.7263293384401</v>
+        <v>51.43362609974825</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>23.06009349562122</v>
+        <v>9.294853313159649</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>43.18117518571975</v>
+        <v>76.24128029710198</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>47.54948668332669</v>
+        <v>79.41133750889047</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>50.34057166782429</v>
+        <v>79.97337607845432</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>57.07156367315064</v>
+        <v>88.75084621546279</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>60.66212162310389</v>
+        <v>93.16742005975772</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>26.06003131572809</v>
+        <v>23.7605143129515</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>52.71727013049605</v>
+        <v>84.10054469520627</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>57.7282375447938</v>
+        <v>87.79907215752986</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>-5.226365521511326</v>
+        <v>5.72445500448725</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>13.27476797733335</v>
+        <v>7.949202879863179</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>17.74218541812625</v>
+        <v>12.14506350463622</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>-5.989448366987332</v>
+        <v>-1.063639380189418</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>13.71365982397775</v>
+        <v>14.3585414619983</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>18.18767670491396</v>
+        <v>16.87238558979426</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>1.206192994655893</v>
+        <v>-2.032259310454311</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>19.44807293820783</v>
+        <v>22.38600414999333</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>23.98216266970653</v>
+        <v>24.57312043938466</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>26.50208167940427</v>
+        <v>27.1628943304803</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>32.51586379742177</v>
+        <v>32.73615488394817</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>36.04399177607279</v>
+        <v>32.69559762321603</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>4.743181311370201</v>
+        <v>7.016681037259843</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>28.47037005406457</v>
+        <v>18.70574912003075</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>33.77352482211035</v>
+        <v>25.08439082346114</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>-1.025616346531649</v>
+        <v>12.47190040101058</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>17.59318760063449</v>
+        <v>28.05949768638689</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>22.44026187815948</v>
+        <v>35.92869868994957</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>-2.958472254074167</v>
+        <v>5.45870233168387</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>16.77342707096066</v>
+        <v>27.28926069256089</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>21.74739269697635</v>
+        <v>37.28704043390307</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>4.739989095514169</v>
+        <v>5.34233978038846</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>23.12218710509084</v>
+        <v>42.31230216991095</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>28.02632299792015</v>
+        <v>56.50314822632436</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>29.39156304432998</v>
+        <v>40.77779190363082</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>35.62724773675497</v>
+        <v>49.09248513000561</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>39.38045111956326</v>
+        <v>54.01605993546144</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>8.591099992756185</v>
+        <v>14.83301942276966</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>33.01108727406717</v>
+        <v>50.47215687879198</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>38.40298447519677</v>
+        <v>57.31092776489551</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>8.132050243643711</v>
+        <v>18.51283190759602</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>27.71826787250419</v>
+        <v>38.94013439866835</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>32.59870432671119</v>
+        <v>46.66812280741087</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>7.038961171286616</v>
+        <v>8.22001455910414</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>27.94850029674375</v>
+        <v>41.64762618430527</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>32.86058104783871</v>
+        <v>48.56190802784036</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>16.14233250850858</v>
+        <v>10.39855973380802</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>35.48580462530409</v>
+        <v>60.88676657592607</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>40.45061773530345</v>
+        <v>69.83392692922629</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>43.3195696522646</v>
+        <v>70.87731223590467</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>49.66054792538709</v>
+        <v>79.7391196427487</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>53.6712044968224</v>
+        <v>83.97416860256271</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>20.17157966748395</v>
+        <v>27.64169885159076</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>46.02541426448094</v>
+        <v>75.94279173392142</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>51.6888214776741</v>
+        <v>85.12753140466107</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>-8.620237481693906</v>
+        <v>5.393155892183138</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>10.65472738284878</v>
+        <v>8.1073043741603</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>15.21387105287854</v>
+        <v>11.87175440753328</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>-9.913446601911858</v>
+        <v>-3.095604663925233</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>10.57812800031145</v>
+        <v>12.44389926050544</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>15.10076379215145</v>
+        <v>16.28552302018485</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>-2.480934687453995</v>
+        <v>-7.090098647277234</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>16.53734588060019</v>
+        <v>19.15757722399108</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>21.15848265099061</v>
+        <v>23.86720911724003</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>23.68304176029532</v>
+        <v>15.47550176034188</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>30.23183634391732</v>
+        <v>21.92037327907467</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>33.97903287035918</v>
+        <v>25.91919646351499</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>1.340620696601682</v>
+        <v>3.797526969078842</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>25.80610456111528</v>
+        <v>11.15103985417906</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>31.29263594561535</v>
+        <v>16.73689978375186</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>-4.804951130526021</v>
+        <v>2.95084003683284</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>14.5820200219185</v>
+        <v>9.185276286295654</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>19.51206003116747</v>
+        <v>16.53334871295657</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>-7.279153307930642</v>
+        <v>-4.368779594785448</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>13.24436536765747</v>
+        <v>6.281874361407748</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>18.24896242648745</v>
+        <v>17.54632780570119</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>0.640263756845961</v>
+        <v>-10.8984018604472</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>19.79164877227829</v>
+        <v>16.52717072647608</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>24.77449947466074</v>
+        <v>33.84992990127657</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>26.18050574454531</v>
+        <v>11.71337825328304</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>32.94960936397242</v>
+        <v>22.13764942887619</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>36.94098536373132</v>
+        <v>31.43965406897524</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>4.869969142050813</v>
+        <v>-0.476444345608023</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>30.02318459404902</v>
+        <v>20.92390829296469</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>35.57762860670806</v>
+        <v>26.9675417179562</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>3.951868279900403</v>
+        <v>9.573158159077057</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>24.31571937050165</v>
+        <v>17.91591436171666</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>29.35227166966505</v>
+        <v>30.34286142649529</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>2.320983617899067</v>
+        <v>-2.153586272269795</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>24.03989333779387</v>
+        <v>17.82659525591211</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>29.06443147846994</v>
+        <v>31.20355661578073</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>11.71416419475971</v>
+        <v>-5.219661886690542</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>31.83257786564338</v>
+        <v>33.57033539984458</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>36.95101466533552</v>
+        <v>50.97784018918374</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>39.95516100035719</v>
+        <v>40.76974034817008</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>46.84098292989918</v>
+        <v>49.39908518171275</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>51.13498240192271</v>
+        <v>62.69837910672209</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>16.16546730125665</v>
+        <v>5.932674259933254</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>42.83916206834429</v>
+        <v>39.48753523085578</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>48.74591040117124</v>
+        <v>49.63424219512244</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>10.26190885253746</v>
+        <v>12.43940197110425</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>30.48582145796597</v>
+        <v>32.99205396754046</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>34.74546618401825</v>
+        <v>40.26921649976249</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>10.19671102702787</v>
+        <v>8.091535564643053</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>31.85104620947528</v>
+        <v>47.61784698839338</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>36.05195896999289</v>
+        <v>50.97746854159097</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>19.02308505143273</v>
+        <v>10.58083510695357</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>38.97595093278409</v>
+        <v>64.15855125317432</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>43.30748073346689</v>
+        <v>67.49264044935136</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>45.10028042607013</v>
+        <v>65.40084698279151</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>51.7631125208778</v>
+        <v>75.18685064018234</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>54.983972249987</v>
+        <v>73.47865238197662</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>20.95333471339307</v>
+        <v>23.71436622985508</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>46.87924468921812</v>
+        <v>56.39474622126086</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>51.99543696438423</v>
+        <v>67.80483484077085</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>12.91837286544508</v>
+        <v>13.47366368447546</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>33.20096920971783</v>
+        <v>36.17112555397367</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>37.78786186430835</v>
+        <v>40.2179696905787</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>11.53278847580528</v>
+        <v>-0.6576486806364805</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>33.154137560346</v>
+        <v>34.16882957890938</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>37.7913566823709</v>
+        <v>37.91125939175984</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>20.78851832813531</v>
+        <v>1.273287448279724</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>40.82262543237889</v>
+        <v>53.90435791630424</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>45.47205836169947</v>
+        <v>62.14109299974201</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>46.25521237527079</v>
+        <v>49.29895208458009</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>53.09548604203603</v>
+        <v>60.20362982650633</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>56.52820418468687</v>
+        <v>60.05961532321974</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>23.27535989266966</v>
+        <v>18.93491594078647</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>49.79677155443855</v>
+        <v>63.57312233491562</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>54.91618519967313</v>
+        <v>65.85139494170498</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>21.07202169076763</v>
+        <v>15.16190281122028</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>42.29571599882158</v>
+        <v>41.92774015733018</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>46.92213098468164</v>
+        <v>47.08857578238189</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>20.59842108294737</v>
+        <v>1.930257318107117</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>43.36706156409706</v>
+        <v>46.64092921337479</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>47.95696220107828</v>
+        <v>48.28129208502699</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>31.21519785479031</v>
+        <v>4.165762930093884</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>52.18498816551161</v>
+        <v>68.89269346311634</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>56.89827330231814</v>
+        <v>73.53717588299843</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>59.29422885805391</v>
+        <v>74.72484253451346</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>66.25797585768288</v>
+        <v>84.54274246437717</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>69.96116138291515</v>
+        <v>85.42195857185958</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>33.98017504769147</v>
+        <v>22.81737275464626</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>61.94890703541488</v>
+        <v>81.62946308710445</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>67.35156554850124</v>
+        <v>87.17724732684117</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>-3.993829906007136</v>
+        <v>7.128574626787309</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>14.11191829123521</v>
+        <v>8.613086338778064</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>18.76973147504702</v>
+        <v>13.4791228256203</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>-5.196018680652969</v>
+        <v>-1.202746075208974</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>14.03446034409929</v>
+        <v>8.607764349120689</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>18.72218468238306</v>
+        <v>14.00561085164052</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>2.102164850873912</v>
+        <v>-1.090335256180463</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>19.96568918024948</v>
+        <v>18.53689134369152</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>24.68324602859578</v>
+        <v>22.428951283221</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>26.59904093377601</v>
+        <v>19.6758566578802</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>32.71738485597435</v>
+        <v>23.77349174502015</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>36.43978823756321</v>
+        <v>27.11950579935345</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>5.187158827026373</v>
+        <v>5.513112369333133</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>28.68494837701618</v>
+        <v>16.64692725424034</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>34.2123790811663</v>
+        <v>21.15099938410184</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>-0.5363878603196355</v>
+        <v>8.075792999454709</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>17.65255664682655</v>
+        <v>17.90013877014789</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>22.72006907809966</v>
+        <v>29.74728372343917</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>-2.806627819971226</v>
+        <v>2.324117173500756</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>16.41430021972256</v>
+        <v>13.90492244581839</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>21.63388430788618</v>
+        <v>29.37403009512014</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>4.951733431473087</v>
+        <v>1.829153187274496</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>22.920063110085</v>
+        <v>27.29269126336692</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>28.03817225021891</v>
+        <v>47.30074987851978</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>28.87516285739478</v>
+        <v>22.89506580884659</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>35.19557510645139</v>
+        <v>29.6511870286669</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>39.17597806107798</v>
+        <v>40.72940347929542</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>8.42575861853409</v>
+        <v>5.250477562055845</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>32.56456898800066</v>
+        <v>32.72795319744009</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>38.23159015517174</v>
+        <v>43.01352331849156</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>9.206469114877756</v>
+        <v>16.36785523909652</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>28.36777981533523</v>
+        <v>29.86839038804207</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>33.46875468267066</v>
+        <v>43.70253706119664</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>7.705378667655779</v>
+        <v>4.652567290762676</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>28.11230832548452</v>
+        <v>26.21159475801936</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>33.27465902155686</v>
+        <v>40.8974449592362</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>16.91923272611425</v>
+        <v>7.950140599420905</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>35.85466412212183</v>
+        <v>45.14421832098263</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>41.03275694201179</v>
+        <v>62.34449917507311</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>43.26319355239968</v>
+        <v>50.95566823086751</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>49.70520267838766</v>
+        <v>58.57591569546103</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>53.94750290617723</v>
+        <v>74.29519795298367</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>20.50097292804183</v>
+        <v>16.57747860857672</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>46.05743064148515</v>
+        <v>55.28776904611323</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>51.99140296378122</v>
+        <v>69.103440764501</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>3.87080755793054</v>
+        <v>-0.7349466213127194</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>23.40234482805452</v>
+        <v>10.14544651665282</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>27.573923710648</v>
+        <v>11.65033928705514</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>2.83852719080754</v>
+        <v>-13.97186078637311</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>23.67325054967525</v>
+        <v>9.072694262313465</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>27.74924149171233</v>
+        <v>11.31861046098326</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>11.06326798484043</v>
+        <v>-14.46099538173268</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>30.32829034164</v>
+        <v>23.22829226547523</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>34.56841372995376</v>
+        <v>22.72795158287403</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>36.53204286424446</v>
+        <v>20.22240725352201</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>43.18361969393571</v>
+        <v>25.05660695534937</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>46.53230458404788</v>
+        <v>26.88925050101783</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>13.08886973749006</v>
+        <v>-5.872245414683139</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>38.32640087542941</v>
+        <v>11.41108158614251</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>43.24192061742013</v>
+        <v>13.6284624143584</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>7.649123522904773</v>
+        <v>18.56968069824132</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>27.25785648726306</v>
+        <v>38.07090654980576</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>31.80520817398168</v>
+        <v>40.11021629262613</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>5.499309231235046</v>
+        <v>6.64853762064061</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>26.31711081227557</v>
+        <v>33.2534230433001</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>30.88427764897996</v>
+        <v>38.33809774271794</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>14.23461582220015</v>
+        <v>7.21874624779424</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>33.59846472496292</v>
+        <v>52.19571123225937</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>38.20570216097444</v>
+        <v>60.03684662038762</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>39.12599243908657</v>
+        <v>48.73890304325512</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>45.96664809388919</v>
+        <v>56.43183550085369</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>49.56300205539563</v>
+        <v>59.84804371379116</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>16.75885929959271</v>
+        <v>20.49502418011902</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>42.62425831620315</v>
+        <v>58.72409618216053</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>47.63183233134266</v>
+        <v>60.11692742272038</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>17.05677840572022</v>
+        <v>23.20081159328956</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>37.67579317105363</v>
+        <v>47.27275463027622</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>42.25768649898343</v>
+        <v>50.14660261674362</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>15.65152332299462</v>
+        <v>7.66455360899332</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>37.71409088721553</v>
+        <v>45.8932621935989</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>42.22217052238106</v>
+        <v>48.51202075979609</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>25.88858644771837</v>
+        <v>10.53134571696354</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>46.25406746208218</v>
+        <v>68.27591924847047</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>50.92204336718508</v>
+        <v>72.27686032033101</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>53.26508605586804</v>
+        <v>76.06749932526409</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>60.24891425756703</v>
+        <v>82.35606104067136</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>64.09587536751673</v>
+        <v>87.94485495422489</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>28.51356647121131</v>
+        <v>25.21032065589205</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>55.87439088680032</v>
+        <v>79.92612216259791</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>61.14516912753891</v>
+        <v>80.60593635668916</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>1.276190593153977</v>
+        <v>10.2082952872399</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>20.16760541131535</v>
+        <v>12.5160326076291</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>24.58797834549596</v>
+        <v>16.85523409250023</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>-0.08271943120944059</v>
+        <v>-1.029734928792077</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>20.05031715982319</v>
+        <v>12.54112437094345</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>24.40631395637698</v>
+        <v>16.46133317143374</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>8.01479060328613</v>
+        <v>0.02691306859857789</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>26.63334907694632</v>
+        <v>23.01910846787598</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>31.12338030101238</v>
+        <v>26.77938901641744</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>32.88684180431068</v>
+        <v>23.49224860442404</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>39.30575157887164</v>
+        <v>26.62367726758524</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>42.78522427649111</v>
+        <v>29.58505523413589</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>10.37430487690776</v>
+        <v>11.14327092370064</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>34.78072043360693</v>
+        <v>19.66844228596681</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>39.96099760202202</v>
+        <v>24.11836193480744</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>4.063827112355632</v>
+        <v>6.296472625230113</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>23.0245053041052</v>
+        <v>11.53917499705755</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>27.84912299949888</v>
+        <v>20.12106817960814</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>1.544626081818919</v>
+        <v>-1.988695993783328</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>21.64498535128136</v>
+        <v>7.761993787433191</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>26.52675293457057</v>
+        <v>18.9794457275052</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>10.09209422844674</v>
+        <v>-4.86733857211151</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>28.80236264431868</v>
+        <v>18.08408795147643</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>33.68855694611958</v>
+        <v>34.7657155987059</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>34.45882148063369</v>
+        <v>14.69928775859618</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>41.07384789097766</v>
+        <v>20.4648360810115</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>44.81026085660578</v>
+        <v>27.10092625196697</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>12.99413044005964</v>
+        <v>3.336330394110174</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>38.04506601025994</v>
+        <v>22.85248882328526</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>43.33981731982811</v>
+        <v>29.13050226665757</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>14.86491841478446</v>
+        <v>18.33944436219446</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>34.87335680473197</v>
+        <v>29.46885295665526</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>39.707210524308</v>
+        <v>36.39269308305056</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>13.09669392362752</v>
+        <v>2.237930450744621</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>34.4789960613529</v>
+        <v>25.10015636239738</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>39.27250014375211</v>
+        <v>31.44383578566794</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>23.23830717580861</v>
+        <v>5.420770074410743</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>42.98995618521704</v>
+        <v>43.27183744988972</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>47.91216453630753</v>
+        <v>53.15640782179405</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>50.036726256159</v>
+        <v>50.34168175659479</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>56.79358420968031</v>
+        <v>54.31865006554703</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>60.77414124089046</v>
+        <v>63.15288071229641</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>26.12434582225433</v>
+        <v>16.78554534797531</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>52.67596700944452</v>
+        <v>51.07147291050789</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>58.20069825953954</v>
+        <v>55.63070040059259</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-6.958378053327195</v>
+        <v>8.125786142909398</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>10.77516286701358</v>
+        <v>5.443573973308776</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>14.87906987475473</v>
+        <v>6.033478846092017</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-8.615434579080812</v>
+        <v>-2.413793156028788</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>10.27082600744851</v>
+        <v>3.558541382372159</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>14.2834742748167</v>
+        <v>4.662390296180213</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>-1.699818802469913</v>
+        <v>-3.888857548697555</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>15.77521417849707</v>
+        <v>10.12663547197721</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>19.942413783585</v>
+        <v>10.34391732526922</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>22.48650788664471</v>
+        <v>7.661158958603632</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>28.52981994429499</v>
+        <v>8.82970850114167</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>31.85742400083425</v>
+        <v>11.61801409430456</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>1.627669327437026</v>
+        <v>4.652177742451929</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>24.46330858892026</v>
+        <v>6.101246998387392</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>29.30215832896152</v>
+        <v>6.587049482070558</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-4.099765266914176</v>
+        <v>5.035129913898761</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>13.69503671170897</v>
+        <v>5.697852003907979</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>18.19782609764592</v>
+        <v>9.287836390122255</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-6.818058407793771</v>
+        <v>-2.596643884004234</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>12.03126688601237</v>
+        <v>0.7344116218877339</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>16.56020470044986</v>
+        <v>7.372688536816579</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>0.5341610092458993</v>
+        <v>-8.020866778913298</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>18.09131716122249</v>
+        <v>7.112060610190056</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>22.65009799137696</v>
+        <v>17.98137505093769</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>24.25054657179784</v>
+        <v>2.899743272849005</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>30.4826080947176</v>
+        <v>5.971201752248749</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>34.06461025930479</v>
+        <v>10.56520801666931</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>4.372297016238626</v>
+        <v>-1.282996043915876</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>27.81900770088657</v>
+        <v>10.33987190979537</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>32.78837862635203</v>
+        <v>11.23836805283811</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>6.753852980315202</v>
+        <v>18.96033509551651</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>25.5535609547145</v>
+        <v>24.66423282675281</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>30.06731693223231</v>
+        <v>28.03806467805173</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>4.694792472408366</v>
+        <v>2.178193626674247</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>24.77704717269777</v>
+        <v>17.88194374186945</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>29.21963332629717</v>
+        <v>21.7087208606399</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>13.62274848750027</v>
+        <v>3.595473116989094</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>32.17772987647623</v>
+        <v>32.02734841280599</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>36.77412885249151</v>
+        <v>38.07393165042556</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>39.60611758585483</v>
+        <v>38.56574787195692</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>45.96775150532324</v>
+        <v>40.79415884481057</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>49.77971762316367</v>
+        <v>47.59480119107529</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>17.36333267027807</v>
+        <v>14.19965638171346</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>42.24215726621247</v>
+        <v>38.63273534521372</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>47.43048405827534</v>
+        <v>39.95149610710391</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>-4.826314184162811</v>
+        <v>20.23745580695324</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>14.51979546102469</v>
+        <v>28.11946316896043</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>19.17858823666386</v>
+        <v>32.13934204110662</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>-6.273594156959291</v>
+        <v>4.216373656312729</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>14.28802402575626</v>
+        <v>26.50498580404976</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>18.92200612513198</v>
+        <v>29.29996894870229</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>1.683488614642449</v>
+        <v>9.300035679053071</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>20.77070634712493</v>
+        <v>41.77817390712842</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>25.49173489421493</v>
+        <v>45.51816660944563</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>27.7456075846136</v>
+        <v>43.77333144043784</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>34.23703316352093</v>
+        <v>50.18433564483183</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>38.0068518185682</v>
+        <v>52.35159653804652</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>5.457768999835579</v>
+        <v>29.24150517392472</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>30.09003303511168</v>
+        <v>46.2856444864257</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>35.70458112497861</v>
+        <v>54.42576284092472</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>-1.253521809599683</v>
+        <v>12.8013019235759</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>18.20501857069501</v>
+        <v>25.27299434697554</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>23.24352042227275</v>
+        <v>29.93630749932778</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>-3.903394478143866</v>
+        <v>-2.193590364455329</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>16.68498991608997</v>
+        <v>15.64720866571487</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>21.81545612731691</v>
+        <v>23.09837126074071</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>4.509711417648745</v>
+        <v>-2.125285170585702</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>23.73153430689098</v>
+        <v>31.83855268593695</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>28.82238955227345</v>
+        <v>45.22360893106847</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>29.93632480658432</v>
+        <v>31.18302138072541</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>36.65713106405635</v>
+        <v>38.56535686103965</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>40.66441946680308</v>
+        <v>43.27270588670277</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>8.673844707451607</v>
+        <v>16.7940822174335</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>34.00649359182747</v>
+        <v>46.62870054476389</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>39.69679974168365</v>
+        <v>52.1406204840332</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>8.000535828449458</v>
+        <v>22.27166092628359</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>28.44716130791602</v>
+        <v>37.63294433936316</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>33.56965954939517</v>
+        <v>43.83371956500469</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>6.230335344317588</v>
+        <v>4.429670171162812</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>28.02748951881609</v>
+        <v>32.94403761667415</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>33.14994855692655</v>
+        <v>38.46408267745362</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>16.14381107556652</v>
+        <v>7.600643746969958</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>36.34453241873671</v>
+        <v>54.47762297943422</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>41.54937368534866</v>
+        <v>63.84833450377806</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>44.29454560119147</v>
+        <v>66.72916336737347</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>51.11270990884926</v>
+        <v>72.3086869318696</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>55.41914950291378</v>
+        <v>79.7798947193769</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>20.51185519585998</v>
+        <v>29.51442385474647</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>47.35028579389827</v>
+        <v>70.47030208448787</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>53.37373712162871</v>
+        <v>77.91412268833461</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>7.166693944482908</v>
+        <v>18.96659359235683</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>26.60393214645821</v>
+        <v>37.52513229888201</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>31.11018155492303</v>
+        <v>41.48460334793808</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>6.334493079864806</v>
+        <v>10.11817247164137</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>27.04009941652734</v>
+        <v>41.17192098367298</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>31.49856084562261</v>
+        <v>44.21832638113219</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>14.92078754540611</v>
+        <v>14.45438988551264</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>34.09626158518206</v>
+        <v>57.51078932489491</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>38.66813124073418</v>
+        <v>60.62736079564367</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>40.05587397416141</v>
+        <v>60.92992566346821</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>46.69882533230566</v>
+        <v>65.81582060014756</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>50.24689424335324</v>
+        <v>67.36750686736957</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>16.79840913876868</v>
+        <v>22.88050781425679</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>42.01583331756142</v>
+        <v>56.55131804165509</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>47.3869852067625</v>
+        <v>61.26564781560242</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>9.915819161416813</v>
+        <v>13.75707242267944</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>29.41522362220745</v>
+        <v>34.1158212921666</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>34.31933000681181</v>
+        <v>40.534203459322</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>7.9097883572855</v>
+        <v>4.595085817369494</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>28.57725713109901</v>
+        <v>30.04561205726777</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>33.55320404041431</v>
+        <v>38.63237656080186</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>16.94519507963788</v>
+        <v>5.407929625341815</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>36.20500470008004</v>
+        <v>47.17776650131839</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>41.16608108983461</v>
+        <v>61.18216637234255</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>41.54168966808176</v>
+        <v>46.29875596736078</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>48.36821323004772</v>
+        <v>54.64991061422192</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>52.1815929409312</v>
+        <v>58.26932164698045</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>19.3571130554276</v>
+        <v>14.45750860493976</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>45.20412755321048</v>
+        <v>57.99683280897685</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>50.68584593553857</v>
+        <v>64.25864290055864</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>19.72280323542466</v>
+        <v>15.70434112571847</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>40.2387919049015</v>
+        <v>40.64191384347481</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>45.17795609251129</v>
+        <v>47.86429788747112</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>18.4988070045675</v>
+        <v>3.388300955608766</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>40.41341515924272</v>
+        <v>40.07203532329402</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>45.33270605280354</v>
+        <v>46.81152837842485</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>29.05163300432503</v>
+        <v>5.995619043171143</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>49.32172176965437</v>
+        <v>60.19993747748452</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>54.34436725872673</v>
+        <v>70.44524250431118</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>56.15531869293505</v>
+        <v>70.25421907853203</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>63.13732257030995</v>
+        <v>78.10048854771637</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>67.2015566128449</v>
+        <v>85.28250871738433</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>31.57244092710127</v>
+        <v>17.10383119104249</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>58.89893590489905</v>
+        <v>74.88495943954955</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>64.64336886681932</v>
+        <v>81.92946898148213</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>14.98803871758297</v>
+        <v>14.43022067566037</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>36.16715512257244</v>
+        <v>31.56971222281938</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>41.06149156128593</v>
+        <v>35.22855290513487</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>14.10227903759703</v>
+        <v>7.381962035798111</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>36.66190248194539</v>
+        <v>41.63694369438135</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>41.53135115823879</v>
+        <v>44.19176795997627</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>24.12285472904559</v>
+        <v>8.935381230432935</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>45.02317823188695</v>
+        <v>55.68086646002007</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>49.98638886645438</v>
+        <v>58.63582362595673</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>50.5196644599705</v>
+        <v>54.08782417275835</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>57.72354232496737</v>
+        <v>61.40021536947741</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>61.6147898629061</v>
+        <v>61.78994122236864</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>25.41302741451843</v>
+        <v>20.80884318598925</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>52.44395711205818</v>
+        <v>48.90744759677941</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>58.34001820506543</v>
+        <v>58.89863996734523</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>18.73922461054845</v>
+        <v>15.11178143558964</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>40.04615645159824</v>
+        <v>37.24303111354884</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>45.3251597276801</v>
+        <v>41.65803834464094</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>16.53995380689328</v>
+        <v>3.590279801223993</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>39.13740907624933</v>
+        <v>33.59752344782841</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>44.51074995024225</v>
+        <v>41.73865951230397</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>27.08043307061448</v>
+        <v>3.201046392638219</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>48.13283186047444</v>
+        <v>51.94282313347596</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>53.47045333806589</v>
+        <v>64.97384158801619</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>52.8249757020165</v>
+        <v>48.5728939178144</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>60.26017654099484</v>
+        <v>58.63465726920148</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>64.40340552254123</v>
+        <v>62.16459768638182</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>28.86121523560791</v>
+        <v>18.08280063912882</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>56.63305235270529</v>
+        <v>63.03971087994505</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>62.57991275115462</v>
+        <v>69.16071512245662</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>27.83167054757383</v>
+        <v>18.24411074214115</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>50.18439041700455</v>
+        <v>42.31634120819566</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>55.55841807908656</v>
+        <v>48.07556616242616</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>26.56853427668459</v>
+        <v>4.556206777354802</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>50.44461503475139</v>
+        <v>43.76296735470945</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>55.82311346191663</v>
+        <v>49.94002104192262</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>38.64982756188648</v>
+        <v>5.371938501496704</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>60.73795728866182</v>
+        <v>65.45260972083111</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>66.20021216956383</v>
+        <v>74.47086701440712</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>67.29509553718127</v>
+        <v>75.51353972089846</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>74.86245217794227</v>
+        <v>82.90677868535221</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>79.32030974812744</v>
+        <v>88.53400917069128</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>40.70509141031496</v>
+        <v>22.77847755438336</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>70.09232898116456</v>
+        <v>78.87541053030822</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>76.40026693593811</v>
+        <v>86.88648005360174</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>32.11072391102356</v>
+        <v>21.47034825265472</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>55.48319418065304</v>
+        <v>34.45534920653418</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>61.10165283906255</v>
+        <v>37.03279330067404</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>31.05576210586231</v>
+        <v>18.36203509695655</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>55.92861508426414</v>
+        <v>49.54028538713406</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>61.53139589155693</v>
+        <v>51.67408023731437</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>43.53338620458458</v>
+        <v>15.65337230730965</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>66.58462128691055</v>
+        <v>55.96054902862598</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>72.2876901549858</v>
+        <v>58.70507498624397</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>70.56401510858477</v>
+        <v>54.40270444270159</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>78.63799593950876</v>
+        <v>60.16978580424897</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>83.08777511417662</v>
+        <v>62.83731488766539</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>42.16051555266468</v>
+        <v>30.13842608053083</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>72.00631512794482</v>
+        <v>50.27194877876687</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>78.70121346777505</v>
+        <v>59.44974537976285</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>36.60432449406011</v>
+        <v>22.93728217036072</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>60.15031464929301</v>
+        <v>39.76651137558115</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>66.21801248328613</v>
+        <v>43.47751788695602</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>34.13439698106774</v>
+        <v>21.54317786114922</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>59.07791717903855</v>
+        <v>45.85265477458568</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>65.26836979783948</v>
+        <v>54.59374112200793</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>47.25003630221843</v>
+        <v>11.83386975739804</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>70.50316094274757</v>
+        <v>53.55005985129405</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>76.6438941642156</v>
+        <v>66.15262293658076</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>73.60664850548069</v>
+        <v>48.65298125872538</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>81.94843826645268</v>
+        <v>56.53800575612051</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>86.68547700006512</v>
+        <v>62.36825553872855</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>46.46990809235083</v>
+        <v>27.01561186360796</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>77.188014373843</v>
+        <v>61.40254544224834</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>83.96109673112096</v>
+        <v>68.07161297572546</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>47.46434359046184</v>
+        <v>26.28547623469143</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>72.24118400490076</v>
+        <v>43.7349016308895</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>78.43106937237003</v>
+        <v>48.8049739230745</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>45.96209024525079</v>
+        <v>21.55202316331972</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>72.40383548175458</v>
+        <v>53.88196226028262</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>78.61873023088749</v>
+        <v>60.02873308512352</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>60.87145326817529</v>
+        <v>14.24837802081567</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>85.3434532522641</v>
+        <v>66.11921262732324</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>91.64033503592945</v>
+        <v>74.87588835399998</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>90.43302665911229</v>
+        <v>76.88538537776981</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>98.9600096598995</v>
+        <v>81.11649216583096</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>104.054788370582</v>
+        <v>88.25927443581168</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>60.29271754048057</v>
+        <v>32.07743837215862</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>92.88720614536717</v>
+        <v>75.41923708682168</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>100.0851158738948</v>
+        <v>84.01964551234438</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>11.76724027569402</v>
+        <v>11.80201320597864</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>32.71040907072803</v>
+        <v>30.70062907754319</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>37.59074292608162</v>
+        <v>35.03726428242802</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>10.87391121975601</v>
+        <v>5.044053748578893</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>33.17834088354741</v>
+        <v>36.99723089760474</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>38.03488989144942</v>
+        <v>40.76890030037548</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>20.66736349862693</v>
+        <v>8.824888722622806</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>41.33347901938416</v>
+        <v>54.82702598292964</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>46.28486137115912</v>
+        <v>57.96346503406538</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>47.05876741822412</v>
+        <v>57.85993713259674</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>54.19949243665526</v>
+        <v>64.25143021068622</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>58.06365241582408</v>
+        <v>65.38638257676537</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>21.85387006900572</v>
+        <v>15.29644403232323</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>48.9277513971241</v>
+        <v>50.24410045727407</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>54.71199273720192</v>
+        <v>56.28753389595775</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>15.12194574776316</v>
+        <v>11.56384500891988</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>36.15517962709512</v>
+        <v>33.48994314541959</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>41.439025498707</v>
+        <v>37.81589825106337</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>12.95575080639941</v>
+        <v>1.110515417456124</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>35.25296993435967</v>
+        <v>29.4874151644967</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>40.63771607235246</v>
+        <v>35.81240340030352</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>23.25580382996471</v>
+        <v>1.661506457743112</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>44.03568723740108</v>
+        <v>47.33471506754053</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>49.38060461054107</v>
+        <v>59.18917901662554</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>49.02330250952718</v>
+        <v>44.89791544466345</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>56.36998051568832</v>
+        <v>53.52154164914912</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>60.48780547624568</v>
+        <v>56.36750073014147</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>24.97056712188076</v>
+        <v>8.379014614982449</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>52.72576820219773</v>
+        <v>54.04653991493666</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>58.59834205453735</v>
+        <v>59.80693148080915</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>24.92886902267678</v>
+        <v>12.65335381032265</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>47.01880587232318</v>
+        <v>37.31039878106773</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>52.37093689153014</v>
+        <v>44.25868086070433</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>23.67018649000199</v>
+        <v>0.1480031855351847</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>47.26056661589011</v>
+        <v>37.71320098592579</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>52.62236404618296</v>
+        <v>43.86266654562782</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>35.52276956882977</v>
+        <v>1.508777042104057</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>57.35139946063217</v>
+        <v>58.51426236642575</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>62.79257434801124</v>
+        <v>67.94749572004417</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>64.04394484006497</v>
+        <v>68.49854625643312</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>71.551542617032</v>
+        <v>76.55528715330948</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>75.97590221895194</v>
+        <v>83.73982773427873</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>37.4393693462119</v>
+        <v>10.40274347707148</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>66.78110474200955</v>
+        <v>69.96602195994473</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>72.98144493800559</v>
+        <v>78.7565753102574</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>4.95395469783238</v>
+        <v>12.72681788270332</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>24.01588932923148</v>
+        <v>15.81782483686031</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>28.74923853555652</v>
+        <v>19.8180387896505</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>3.746153362128418</v>
+        <v>0.6418253583066225</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>23.99272814217427</v>
+        <v>18.48632814415838</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>28.7149727268953</v>
+        <v>21.37731510585478</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>12.1473461252398</v>
+        <v>3.462195430801682</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>30.95352443598549</v>
+        <v>27.80612308143284</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>35.75142454643444</v>
+        <v>32.18925970023422</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>36.97496077796878</v>
+        <v>28.81394993230654</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>43.36335447086771</v>
+        <v>32.51524653982594</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>47.21137070182189</v>
+        <v>35.6092359996783</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>14.50891164637462</v>
+        <v>11.65277454963286</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>38.90288438049328</v>
+        <v>23.25807502129116</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>44.59518140278712</v>
+        <v>29.68950433595946</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>9.112238221117735</v>
+        <v>14.00481751877666</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>28.31373677968418</v>
+        <v>27.90616797008686</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>33.44226948096869</v>
+        <v>37.02700670863936</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>6.74262692442737</v>
+        <v>6.343514303805513</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>27.04177529272975</v>
+        <v>26.55490027818306</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>32.27967675026655</v>
+        <v>38.51710709701994</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>15.65622205126545</v>
+        <v>6.001228945256383</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>34.62459377765626</v>
+        <v>39.0375811692217</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>39.80818398122253</v>
+        <v>57.52945960534274</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>39.88168724151977</v>
+        <v>37.48932436141881</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>46.50157470737771</v>
+        <v>45.80968907855696</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>50.59259581465789</v>
+        <v>55.16308015959423</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>18.37695759079207</v>
+        <v>13.26291670084462</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>43.51225403587741</v>
+        <v>46.68552804609952</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>49.29560937003035</v>
+        <v>57.11022529551737</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>18.33983483181269</v>
+        <v>20.57559919494329</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>38.54179932813459</v>
+        <v>36.74710121754218</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>43.7529993530497</v>
+        <v>46.83471288226233</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>16.80300397611013</v>
+        <v>7.858164233055135</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>38.32841517395883</v>
+        <v>37.75314007068179</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>43.56063692739846</v>
+        <v>47.3244488722998</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>27.20046106383395</v>
+        <v>10.58062304825026</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>47.1605885928907</v>
+        <v>54.91760013798472</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>52.45452270111309</v>
+        <v>69.13833291070029</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>54.07814896156562</v>
+        <v>63.4598471066555</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>60.81350238095555</v>
+        <v>68.54186305351061</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>65.21061954927879</v>
+        <v>81.50530155407371</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>30.12479401398037</v>
+        <v>20.49599099424579</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>56.75353891865754</v>
+        <v>63.04353904818286</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>62.88471413455116</v>
+        <v>76.89116660790845</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>31.54401161711274</v>
+        <v>14.12557178409041</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>54.81449264829678</v>
+        <v>24.72397379510902</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>60.47286314049698</v>
+        <v>28.71644170529164</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>30.46472363248198</v>
+        <v>5.917558903087709</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>55.22141456190437</v>
+        <v>33.30478814141303</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>60.87500844338403</v>
+        <v>37.52786886352051</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>42.88835428186871</v>
+        <v>5.821582903002231</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>65.83849619495126</v>
+        <v>42.2046596549778</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>71.58086566936927</v>
+        <v>46.73927688504106</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>69.85410308573007</v>
+        <v>40.5486369032443</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>77.88850641089591</v>
+        <v>46.33161104506975</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>82.37105796724001</v>
+        <v>50.84016812107852</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>41.60375912095463</v>
+        <v>18.95558099864416</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>71.32739353053312</v>
+        <v>38.18124545400747</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>78.06313761432793</v>
+        <v>48.90488592492193</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>36.04682562286881</v>
+        <v>12.11035033015681</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>59.49238057369853</v>
+        <v>27.24182210383892</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>65.60358796900125</v>
+        <v>34.18507025621038</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>33.55460767550977</v>
+        <v>6.534804673051955</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>58.38370486983327</v>
+        <v>27.86189659503842</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>64.6292366885076</v>
+        <v>40.94847753297736</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>46.61694467935244</v>
+        <v>-0.1357636224267971</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>69.77053605632702</v>
+        <v>38.24388432412405</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>75.95416784882789</v>
+        <v>54.58674874242756</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>72.90784351314844</v>
+        <v>33.64276634803059</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>81.21166941513999</v>
+        <v>41.87402201286294</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>85.98216980118849</v>
+        <v>50.84100598299204</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>45.91246385496049</v>
+        <v>12.46817517334843</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>76.51231063781734</v>
+        <v>46.43648258543298</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>83.33132949858334</v>
+        <v>56.47561666083753</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>46.98847776061463</v>
+        <v>15.40087897156388</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>71.66440588029027</v>
+        <v>31.21806055722645</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>77.89793443654128</v>
+        <v>39.54988622412569</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>45.46895302389007</v>
+        <v>5.979187528741576</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>71.79457312256285</v>
+        <v>35.4474727354179</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>78.06464338813862</v>
+        <v>45.81705945735767</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>60.32409585754311</v>
+        <v>1.874245570282735</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>84.69632272416916</v>
+        <v>50.55264534052689</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>91.03640130380674</v>
+        <v>63.0971579511602</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>89.81479569999755</v>
+        <v>61.40999706573902</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>98.3033541046572</v>
+        <v>65.99966118184724</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>103.4321747467016</v>
+        <v>76.2759053927346</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>59.81814252086264</v>
+        <v>17.36611692249809</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>92.28951310842103</v>
+        <v>59.75478963367458</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>99.53349097464468</v>
+        <v>72.35759473634467</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>10.78261358765496</v>
+        <v>18.63565019598925</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>30.28633176216002</v>
+        <v>32.65387396296761</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>34.75603968339777</v>
+        <v>36.56773190842335</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>10.0947524453003</v>
+        <v>8.511826243271674</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>30.89269784128569</v>
+        <v>43.14234289379178</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>35.31641857153799</v>
+        <v>44.01807719514944</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>18.89210588523039</v>
+        <v>14.33192359440176</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>38.12591114582588</v>
+        <v>58.77155386571785</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>42.6665768997854</v>
+        <v>59.68669749126303</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>43.93222729624844</v>
+        <v>61.77916129797637</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>50.43342725619912</v>
+        <v>66.64555664246684</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>53.87467998930125</v>
+        <v>66.73548282878184</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>20.73781595712369</v>
+        <v>28.87072487885008</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>45.63774347860198</v>
+        <v>50.70996550286987</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>51.04185042651188</v>
+        <v>62.65198098983474</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>14.04671289698255</v>
+        <v>22.61517802669222</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>33.651547385493</v>
+        <v>40.3699648172537</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>38.47713606488355</v>
+        <v>42.33774870914081</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>12.1003064027752</v>
+        <v>7.562269551827509</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>32.91025303644595</v>
+        <v>36.96837538964795</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>37.80669234945135</v>
+        <v>40.63155960820434</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>21.37444678672987</v>
+        <v>9.336100952357111</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>40.73189873204549</v>
+        <v>55.09877644383273</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>45.61879235446726</v>
+        <v>62.58632326312649</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>45.82575479714218</v>
+        <v>52.57986583116612</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>52.52195890292382</v>
+        <v>57.34229097640736</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>56.18712786200513</v>
+        <v>60.12556597711564</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>23.69778076750607</v>
+        <v>25.44781424554209</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>49.26317226282914</v>
+        <v>60.42301856774925</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>54.69509714005773</v>
+        <v>64.68826451654412</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>22.86284280785884</v>
+        <v>22.70461980304127</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>43.45495626697156</v>
+        <v>42.74008699735283</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>48.34929938297854</v>
+        <v>46.16079434870105</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>21.77726797498115</v>
+        <v>6.437400676392226</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>43.78978547855598</v>
+        <v>44.23883019543125</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>48.66745000723819</v>
+        <v>46.249885771892</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>32.48216612802845</v>
+        <v>8.882625368029096</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>52.82003235504595</v>
+        <v>65.91695428244675</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>57.80247357990801</v>
+        <v>69.66799654416683</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>59.56607362268451</v>
+        <v>75.47238426906621</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>66.39757185234751</v>
+        <v>79.1448872230296</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>70.34509386754499</v>
+        <v>81.82159900736147</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>35.00398480591676</v>
+        <v>26.37495283494363</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>62.07397563781877</v>
+        <v>71.51869598191841</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>67.82678272805286</v>
+        <v>79.15141904897497</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>10.04687325473961</v>
+        <v>12.60772301020027</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>30.80984839278096</v>
+        <v>31.73492039917862</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>35.63285067248775</v>
+        <v>35.06704916146639</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>9.214184933566024</v>
+        <v>5.319819289692663</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>31.32632712653065</v>
+        <v>37.42468327145355</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>36.11842791070801</v>
+        <v>40.39931814306282</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>18.73258499230934</v>
+        <v>8.432929394877302</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>39.22259773892718</v>
+        <v>54.45122269372128</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>44.11773874410031</v>
+        <v>56.76522245685607</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>45.06152046601385</v>
+        <v>56.77540274919984</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>52.11846945970058</v>
+        <v>64.3529951490178</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>55.94173309412842</v>
+        <v>62.83554402018683</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>20.14059849985411</v>
+        <v>14.14364915659669</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>46.94959310363046</v>
+        <v>49.78916889367823</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>52.68845150989841</v>
+        <v>54.8367906768777</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>13.35518355520813</v>
+        <v>12.04991281073925</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>34.20923452754704</v>
+        <v>34.25716447327873</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>39.42813606712993</v>
+        <v>37.65479043751337</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>11.2480718063332</v>
+        <v>1.294395591131032</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>33.35672240675612</v>
+        <v>29.75853777909646</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>38.66861140963956</v>
+        <v>35.60543548833991</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>21.26968027804382</v>
+        <v>1.677542291355415</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>41.87420948017996</v>
+        <v>47.81827741523574</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>47.1550603155823</v>
+        <v>58.57802152977142</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>46.98164637943977</v>
+        <v>45.76248917273692</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>54.23751210220764</v>
+        <v>53.66361821431755</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>58.31103152669463</v>
+        <v>55.96628615615023</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>23.19537974304297</v>
+        <v>8.33664366495</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>50.67977004487155</v>
+        <v>55.46892286528565</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>56.49780305295602</v>
+        <v>59.45372588230727</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>22.78856368606764</v>
+        <v>12.93315157488438</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>44.67084592845242</v>
+        <v>36.86048567037528</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>49.9702086590851</v>
+        <v>43.54038419359559</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>21.57965808885289</v>
+        <v>0.01549343414125559</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>44.94828600504181</v>
+        <v>36.65761011345242</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>50.2512851745463</v>
+        <v>42.83199497779497</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>33.11467295865975</v>
+        <v>1.39945245352552</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>54.73965037537189</v>
+        <v>57.72766595129291</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>60.1287380197062</v>
+        <v>66.92540470250349</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>61.56527528946713</v>
+        <v>66.65635494145936</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>68.97246543712419</v>
+        <v>73.37494179530212</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>73.35472243377458</v>
+        <v>80.88197402742925</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>35.27084260356265</v>
+        <v>8.788803530284515</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>64.30410308300584</v>
+        <v>67.22977366250137</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>70.46959294493044</v>
+        <v>75.88140576630907</v>
       </c>
     </row>
   </sheetData>
